--- a/doc/要求内容/経理業務機能詳細.xlsx
+++ b/doc/要求内容/経理業務機能詳細.xlsx
@@ -9,14 +9,16 @@
   <sheets>
     <sheet name="要求内容" sheetId="1" r:id="rId1"/>
     <sheet name="環境内容" sheetId="2" r:id="rId2"/>
-    <sheet name="上半期目標" sheetId="3" r:id="rId3"/>
+    <sheet name="ドキュメント作成時ポイント" sheetId="4" r:id="rId3"/>
+    <sheet name="上半期目標" sheetId="3" r:id="rId4"/>
+    <sheet name="技術備考" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="49">
   <si>
     <t>◆やりたい事</t>
     <rPh sb="5" eb="6">
@@ -215,28 +217,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>株主資本等変動計算書作成機能</t>
-    <rPh sb="0" eb="2">
-      <t>カブヌシ</t>
-    </rPh>
-    <rPh sb="2" eb="5">
-      <t>シホントウ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ヘンドウ</t>
-    </rPh>
-    <rPh sb="7" eb="10">
-      <t>ケイサンショ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>サクセイ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>キノウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>期間比較機能(財務諸表間)</t>
     <rPh sb="0" eb="2">
       <t>キカン</t>
@@ -439,10 +419,218 @@
     <t>設計フェーズについての知識・技術が乏しいので、設計フェーズの知識・経験を磨く</t>
   </si>
   <si>
-    <t>。</t>
-  </si>
-  <si>
     <t>詳細設計書、画面遷移図、画面設計書、ER図、DB設計書等、現場に沿った設計書を書けるようにする。</t>
+  </si>
+  <si>
+    <t>◆画面設計書</t>
+    <rPh sb="1" eb="3">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>セッケイショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・誰が画面設計書を読むのかを意識する</t>
+    <rPh sb="1" eb="2">
+      <t>ダレ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>セッケイショ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>イシキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①まずは発注者であるクライアント。技術は意識せず、自分たちの要件を満たすものかを見極めるために読む。</t>
+    <rPh sb="4" eb="7">
+      <t>ハッチュウシャ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ギジュツ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>イシキ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ジブン</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ヨウケン</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>ミキワ</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>ヨ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プロジェクトのゴール、プロジェクトのメリット/デメリット、リリース後の顧客満足についてを読み取ろうとする。</t>
+    <rPh sb="33" eb="34">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>コキャク</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>マンゾク</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>▼視点</t>
+    <rPh sb="1" eb="3">
+      <t>シテン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>▼大切な事</t>
+    <rPh sb="1" eb="3">
+      <t>タイセツ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>コト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>出来る限り具体的にイメージしやすいように作成するのがポイント</t>
+    <rPh sb="0" eb="2">
+      <t>デキ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>カギ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>グタイテキ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>②開発メンバー。</t>
+    <rPh sb="1" eb="3">
+      <t>カイハツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>技術的な観点から読む。技術的に可能なら、設計図として期待している。テスト時の参考資料としても期待している。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>技術的に可能かどうかが詳細に分かるように作成するのがポイント</t>
+    <rPh sb="0" eb="3">
+      <t>ギジュツテキ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カノウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>◆処理手順</t>
+    <rPh sb="1" eb="3">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>テジュン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バリデーションチェックなどの記載は、受け手側で記載する。(入力画面ではなく確認画面)</t>
+    <rPh sb="14" eb="16">
+      <t>キサイ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>テ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ガワ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>キサイ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・MySQL5.0.3以降、varcharは文字数</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>仕訳一覧機能作成</t>
+    <rPh sb="0" eb="2">
+      <t>シワケ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OS</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Windows7(自宅ローカルPC)</t>
+    <rPh sb="9" eb="11">
+      <t>ジタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -842,82 +1030,82 @@
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
-      <c r="A10" s="1" t="s">
+    <row r="11" spans="1:1">
+      <c r="A11" s="1" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
-      <c r="A16" s="1" t="s">
+    <row r="17" spans="1:1">
+      <c r="A17" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
     <row r="18" spans="1:1">
-      <c r="A18" t="s">
-        <v>13</v>
+      <c r="A18" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -929,9 +1117,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
@@ -940,42 +1130,50 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" t="s">
         <v>28</v>
-      </c>
-      <c r="B5" t="s">
-        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -985,6 +1183,92 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="B4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="C6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="C7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="C9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="C10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="B12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="C14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="C15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="C17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="C18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="B21" t="s">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A5"/>
   <sheetViews>
@@ -994,22 +1278,36 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
